--- a/assets/generated/model3/TardinessAtCustomer.xlsx
+++ b/assets/generated/model3/TardinessAtCustomer.xlsx
@@ -348,42 +348,42 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>6253.999999999996</v>
+        <v>5469</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>5251.999999999998</v>
+        <v>4783.999999999956</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>5784.999659525188</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>5461.999999999996</v>
+        <v>4669</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>5632.999999999996</v>
+        <v>4914.999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>5410</v>
+        <v>5160</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>5849.999999999694</v>
+        <v>5100.999999999956</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>5540</v>
+        <v>4996.999999999985</v>
       </c>
     </row>
   </sheetData>

--- a/assets/generated/model3/TardinessAtCustomer.xlsx
+++ b/assets/generated/model3/TardinessAtCustomer.xlsx
@@ -348,42 +348,42 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>5469</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>4783.999999999956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>4130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>4669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>4914.999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>5160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>5100.999999999956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>4996.999999999985</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/assets/generated/model3/TardinessAtCustomer.xlsx
+++ b/assets/generated/model3/TardinessAtCustomer.xlsx
@@ -348,7 +348,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/assets/generated/model3/TardinessAtCustomer.xlsx
+++ b/assets/generated/model3/TardinessAtCustomer.xlsx
@@ -353,17 +353,17 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0</v>
+        <v>63.60000000000036</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -378,17 +378,17 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>0</v>
+        <v>43.20000000000073</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>0</v>
+        <v>8.800000000001091</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:1">

--- a/assets/generated/model3/TardinessAtCustomer.xlsx
+++ b/assets/generated/model3/TardinessAtCustomer.xlsx
@@ -353,42 +353,42 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>63.60000000000036</v>
+        <v>32.99999999999983</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>0</v>
+        <v>28.39999999999964</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>43.20000000000073</v>
+        <v>78.59999999999854</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>8.800000000001091</v>
+        <v>44.19999999999891</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>11</v>
+        <v>93.39999999999964</v>
       </c>
     </row>
     <row r="10" spans="1:1">
